--- a/ClientExcel/Game/EntityGroup.xlsx
+++ b/ClientExcel/Game/EntityGroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="EntityGroup" sheetId="1" r:id="rId1"/>
@@ -1042,12 +1042,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.625" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="23.5" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="16384" width="45.625" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="23.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
